--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27495" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="2025-1_GestaoResultado_ResumoIn" sheetId="1" r:id="rId1"/>
@@ -1184,7 +1184,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2">
         <v>11</v>
@@ -1236,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2">
         <v>18</v>
@@ -1366,16 +1366,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F10" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" s="2">
         <v>31</v>
@@ -1418,16 +1418,16 @@
         <v>13</v>
       </c>
       <c r="E12" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F12" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2">
         <v>13</v>
@@ -1496,7 +1496,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2">
         <v>10</v>
@@ -1522,16 +1522,16 @@
         <v>13</v>
       </c>
       <c r="E16" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1548,16 +1548,16 @@
         <v>13</v>
       </c>
       <c r="E17" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1626,7 +1626,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F20" s="2">
         <v>11</v>
@@ -1652,7 +1652,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2">
         <v>21</v>
@@ -1678,7 +1678,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2">
         <v>13</v>
@@ -1704,16 +1704,16 @@
         <v>13</v>
       </c>
       <c r="E23" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1730,16 +1730,16 @@
         <v>13</v>
       </c>
       <c r="E24" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1756,16 +1756,16 @@
         <v>13</v>
       </c>
       <c r="E25" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1782,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F26" s="2">
         <v>8</v>
@@ -1808,16 +1808,16 @@
         <v>13</v>
       </c>
       <c r="E27" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F27" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F28" s="2">
         <v>7</v>
@@ -1860,16 +1860,16 @@
         <v>13</v>
       </c>
       <c r="E29" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F29" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1886,7 +1886,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" s="2">
         <v>18</v>
@@ -1912,7 +1912,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F31" s="2">
         <v>13</v>
@@ -1938,16 +1938,16 @@
         <v>13</v>
       </c>
       <c r="E32" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1964,16 +1964,16 @@
         <v>13</v>
       </c>
       <c r="E33" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1990,16 +1990,16 @@
         <v>13</v>
       </c>
       <c r="E34" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F34" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G34" s="2">
         <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F35" s="2">
         <v>13</v>
@@ -2042,16 +2042,16 @@
         <v>13</v>
       </c>
       <c r="E36" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F36" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>13</v>
       </c>
       <c r="E39" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F39" s="2">
         <v>24</v>
@@ -2146,16 +2146,16 @@
         <v>13</v>
       </c>
       <c r="E40" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F40" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2172,16 +2172,16 @@
         <v>13</v>
       </c>
       <c r="E41" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2198,7 +2198,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F42" s="2">
         <v>28</v>
@@ -2224,16 +2224,16 @@
         <v>13</v>
       </c>
       <c r="E43" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F43" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2250,7 +2250,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F44" s="2">
         <v>31</v>
@@ -2276,16 +2276,16 @@
         <v>13</v>
       </c>
       <c r="E45" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F45" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
       </c>
       <c r="H45" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2302,7 +2302,7 @@
         <v>13</v>
       </c>
       <c r="E46" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F46" s="2">
         <v>19</v>
@@ -2328,16 +2328,16 @@
         <v>13</v>
       </c>
       <c r="E47" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F47" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2354,7 +2354,7 @@
         <v>13</v>
       </c>
       <c r="E48" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F48" s="2">
         <v>11</v>
@@ -2380,7 +2380,7 @@
         <v>13</v>
       </c>
       <c r="E49" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2">
         <v>25</v>
@@ -2432,7 +2432,7 @@
         <v>13</v>
       </c>
       <c r="E51" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2">
         <v>14</v>
@@ -2458,16 +2458,16 @@
         <v>13</v>
       </c>
       <c r="E52" s="2">
+        <v>3</v>
+      </c>
+      <c r="F52" s="2">
         <v>2</v>
       </c>
-      <c r="F52" s="2">
-        <v>1</v>
-      </c>
       <c r="G52" s="2">
         <v>0</v>
       </c>
       <c r="H52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
@@ -1236,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2">
         <v>18</v>
@@ -1288,16 +1288,16 @@
         <v>13</v>
       </c>
       <c r="E7" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1366,16 +1366,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F10" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1392,16 +1392,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F11" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1418,16 +1418,16 @@
         <v>13</v>
       </c>
       <c r="E12" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F12" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2">
         <v>13</v>
@@ -1496,7 +1496,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2">
         <v>10</v>
@@ -1730,7 +1730,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2">
         <v>18</v>
@@ -1756,7 +1756,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2">
         <v>17</v>
@@ -1808,7 +1808,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F27" s="2">
         <v>25</v>
@@ -1834,7 +1834,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F28" s="2">
         <v>7</v>
@@ -1860,7 +1860,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F29" s="2">
         <v>20</v>
@@ -1990,7 +1990,7 @@
         <v>13</v>
       </c>
       <c r="E34" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F34" s="2">
         <v>25</v>
@@ -2198,7 +2198,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F42" s="2">
         <v>28</v>
@@ -2250,7 +2250,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F44" s="2">
         <v>31</v>
@@ -2328,16 +2328,16 @@
         <v>13</v>
       </c>
       <c r="E47" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F47" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2354,16 +2354,16 @@
         <v>13</v>
       </c>
       <c r="E48" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
       </c>
       <c r="H48" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2406,7 +2406,7 @@
         <v>13</v>
       </c>
       <c r="E50" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F50" s="2">
         <v>13</v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
@@ -1161,13 +1161,13 @@
         <v>48</v>
       </c>
       <c r="F2" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1210,7 +1210,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2">
         <v>6</v>
@@ -1236,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2">
         <v>18</v>
@@ -1262,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
         <v>8</v>
@@ -1366,7 +1366,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F10" s="2">
         <v>36</v>
@@ -1392,7 +1392,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2">
         <v>32</v>
@@ -1418,16 +1418,16 @@
         <v>13</v>
       </c>
       <c r="E12" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F12" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2">
         <v>13</v>
@@ -1496,7 +1496,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="2">
         <v>10</v>
@@ -1522,7 +1522,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2">
         <v>13</v>
@@ -1548,7 +1548,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -1626,7 +1626,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F20" s="2">
         <v>11</v>
@@ -1652,7 +1652,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2">
         <v>21</v>
@@ -1678,7 +1678,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2">
         <v>13</v>
@@ -1704,16 +1704,16 @@
         <v>13</v>
       </c>
       <c r="E23" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1730,7 +1730,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2">
         <v>18</v>
@@ -1756,16 +1756,16 @@
         <v>13</v>
       </c>
       <c r="E25" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1782,16 +1782,16 @@
         <v>13</v>
       </c>
       <c r="E26" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F26" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1808,16 +1808,16 @@
         <v>13</v>
       </c>
       <c r="E27" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F27" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1834,16 +1834,16 @@
         <v>13</v>
       </c>
       <c r="E28" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F28" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29" s="2">
         <v>20</v>
@@ -1886,16 +1886,16 @@
         <v>13</v>
       </c>
       <c r="E30" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F30" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
       </c>
       <c r="H30" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F32" s="2">
         <v>18</v>
@@ -1964,16 +1964,16 @@
         <v>13</v>
       </c>
       <c r="E33" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1990,16 +1990,16 @@
         <v>13</v>
       </c>
       <c r="E34" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F34" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G34" s="2">
         <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2016,16 +2016,16 @@
         <v>13</v>
       </c>
       <c r="E35" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
       </c>
       <c r="H35" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2068,7 +2068,7 @@
         <v>13</v>
       </c>
       <c r="E37" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2">
         <v>11</v>
@@ -2120,7 +2120,7 @@
         <v>13</v>
       </c>
       <c r="E39" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F39" s="2">
         <v>24</v>
@@ -2146,7 +2146,7 @@
         <v>13</v>
       </c>
       <c r="E40" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F40" s="2">
         <v>25</v>
@@ -2172,7 +2172,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F41" s="2">
         <v>32</v>
@@ -2198,7 +2198,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F42" s="2">
         <v>28</v>
@@ -2224,16 +2224,16 @@
         <v>13</v>
       </c>
       <c r="E43" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F43" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2250,7 +2250,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2">
         <v>31</v>
@@ -2302,16 +2302,16 @@
         <v>13</v>
       </c>
       <c r="E46" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F46" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>13</v>
       </c>
       <c r="E47" s="2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F47" s="2">
         <v>33</v>
@@ -2354,16 +2354,16 @@
         <v>13</v>
       </c>
       <c r="E48" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
       </c>
       <c r="H48" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2380,7 +2380,7 @@
         <v>13</v>
       </c>
       <c r="E49" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2">
         <v>25</v>
@@ -2406,16 +2406,16 @@
         <v>13</v>
       </c>
       <c r="E50" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F50" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G50" s="2">
         <v>0</v>
       </c>
       <c r="H50" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
         <v>13</v>
       </c>
       <c r="E51" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2">
         <v>14</v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27495" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22695" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="2025-1_GestaoResultado_ResumoIn" sheetId="1" r:id="rId1"/>
@@ -1158,16 +1158,16 @@
         <v>11</v>
       </c>
       <c r="E2" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1187,13 +1187,13 @@
         <v>17</v>
       </c>
       <c r="F3" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1236,16 +1236,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1366,16 +1366,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="2">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F10" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1392,16 +1392,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F11" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1418,16 +1418,16 @@
         <v>13</v>
       </c>
       <c r="E12" s="2">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F12" s="2">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1444,16 +1444,16 @@
         <v>13</v>
       </c>
       <c r="E13" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1470,16 +1470,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1496,16 +1496,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1522,16 +1522,16 @@
         <v>13</v>
       </c>
       <c r="E16" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1551,13 +1551,13 @@
         <v>23</v>
       </c>
       <c r="F17" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1574,16 +1574,16 @@
         <v>13</v>
       </c>
       <c r="E18" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1652,16 +1652,16 @@
         <v>13</v>
       </c>
       <c r="E21" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1678,16 +1678,16 @@
         <v>13</v>
       </c>
       <c r="E22" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1704,16 +1704,16 @@
         <v>13</v>
       </c>
       <c r="E23" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1730,16 +1730,16 @@
         <v>13</v>
       </c>
       <c r="E24" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1756,16 +1756,16 @@
         <v>13</v>
       </c>
       <c r="E25" s="2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1782,16 +1782,16 @@
         <v>13</v>
       </c>
       <c r="E26" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F26" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1808,16 +1808,16 @@
         <v>13</v>
       </c>
       <c r="E27" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F27" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1837,13 +1837,13 @@
         <v>55</v>
       </c>
       <c r="F28" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1860,16 +1860,16 @@
         <v>13</v>
       </c>
       <c r="E29" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F29" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1886,16 +1886,16 @@
         <v>13</v>
       </c>
       <c r="E30" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F30" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
       </c>
       <c r="H30" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1912,7 +1912,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" s="2">
         <v>13</v>
@@ -1938,16 +1938,16 @@
         <v>13</v>
       </c>
       <c r="E32" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F32" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1967,13 +1967,13 @@
         <v>78</v>
       </c>
       <c r="F33" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1990,16 +1990,16 @@
         <v>13</v>
       </c>
       <c r="E34" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F34" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G34" s="2">
         <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2019,13 +2019,13 @@
         <v>35</v>
       </c>
       <c r="F35" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
       </c>
       <c r="H35" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2042,16 +2042,16 @@
         <v>13</v>
       </c>
       <c r="E36" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F36" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2071,13 +2071,13 @@
         <v>40</v>
       </c>
       <c r="F37" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2094,16 +2094,16 @@
         <v>13</v>
       </c>
       <c r="E38" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F38" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2120,16 +2120,16 @@
         <v>13</v>
       </c>
       <c r="E39" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F39" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2146,16 +2146,16 @@
         <v>13</v>
       </c>
       <c r="E40" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F40" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2172,16 +2172,16 @@
         <v>13</v>
       </c>
       <c r="E41" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F41" s="2">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2198,16 +2198,16 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2224,16 +2224,16 @@
         <v>13</v>
       </c>
       <c r="E43" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F43" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2250,16 +2250,16 @@
         <v>13</v>
       </c>
       <c r="E44" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F44" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G44" s="2">
         <v>0</v>
       </c>
       <c r="H44" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2276,16 +2276,16 @@
         <v>13</v>
       </c>
       <c r="E45" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F45" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
       </c>
       <c r="H45" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2302,16 +2302,16 @@
         <v>13</v>
       </c>
       <c r="E46" s="2">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F46" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2328,16 +2328,16 @@
         <v>13</v>
       </c>
       <c r="E47" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F47" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2354,16 +2354,16 @@
         <v>13</v>
       </c>
       <c r="E48" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
       </c>
       <c r="H48" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2380,16 +2380,16 @@
         <v>13</v>
       </c>
       <c r="E49" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F49" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G49" s="2">
         <v>0</v>
       </c>
       <c r="H49" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2406,16 +2406,16 @@
         <v>13</v>
       </c>
       <c r="E50" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F50" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G50" s="2">
         <v>0</v>
       </c>
       <c r="H50" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2432,16 +2432,16 @@
         <v>13</v>
       </c>
       <c r="E51" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G51" s="2">
         <v>0</v>
       </c>
       <c r="H51" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
@@ -1210,7 +1210,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2">
         <v>6</v>
@@ -1392,7 +1392,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F11" s="2">
         <v>40</v>
@@ -1418,16 +1418,16 @@
         <v>13</v>
       </c>
       <c r="E12" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F12" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2">
         <v>17</v>
@@ -1496,7 +1496,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F15" s="2">
         <v>14</v>
@@ -1522,16 +1522,16 @@
         <v>13</v>
       </c>
       <c r="E16" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2">
         <v>14</v>
@@ -1704,7 +1704,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2">
         <v>18</v>
@@ -1808,7 +1808,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F27" s="2">
         <v>35</v>
@@ -1938,7 +1938,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F32" s="2">
         <v>20</v>
@@ -2042,7 +2042,7 @@
         <v>13</v>
       </c>
       <c r="E36" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F36" s="2">
         <v>9</v>
@@ -2094,7 +2094,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F38" s="2">
         <v>15</v>
@@ -2146,7 +2146,7 @@
         <v>13</v>
       </c>
       <c r="E40" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2">
         <v>29</v>
@@ -2198,7 +2198,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2">
         <v>33</v>
@@ -2276,16 +2276,16 @@
         <v>13</v>
       </c>
       <c r="E45" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F45" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
       </c>
       <c r="H45" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2305,13 +2305,13 @@
         <v>70</v>
       </c>
       <c r="F46" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2328,16 +2328,16 @@
         <v>13</v>
       </c>
       <c r="E47" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F47" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2406,7 +2406,7 @@
         <v>13</v>
       </c>
       <c r="E50" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F50" s="2">
         <v>16</v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
@@ -1236,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2">
         <v>22</v>
@@ -1392,7 +1392,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F11" s="2">
         <v>40</v>
@@ -1418,16 +1418,16 @@
         <v>13</v>
       </c>
       <c r="E12" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F12" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2">
         <v>16</v>
@@ -1522,7 +1522,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" s="2">
         <v>18</v>
@@ -1626,7 +1626,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F20" s="2">
         <v>11</v>
@@ -1678,16 +1678,16 @@
         <v>13</v>
       </c>
       <c r="E22" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1704,16 +1704,16 @@
         <v>13</v>
       </c>
       <c r="E23" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1730,7 +1730,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2">
         <v>22</v>
@@ -1756,16 +1756,16 @@
         <v>13</v>
       </c>
       <c r="E25" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1834,16 +1834,16 @@
         <v>13</v>
       </c>
       <c r="E28" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F29" s="2">
         <v>23</v>
@@ -1912,7 +1912,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="2">
         <v>13</v>
@@ -1938,7 +1938,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F32" s="2">
         <v>20</v>
@@ -2045,13 +2045,13 @@
         <v>19</v>
       </c>
       <c r="F36" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>13</v>
       </c>
       <c r="E39" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F39" s="2">
         <v>26</v>
@@ -2172,7 +2172,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F41" s="2">
         <v>41</v>
@@ -2198,16 +2198,16 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2224,7 +2224,7 @@
         <v>13</v>
       </c>
       <c r="E43" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F43" s="2">
         <v>12</v>
@@ -2276,7 +2276,7 @@
         <v>13</v>
       </c>
       <c r="E45" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F45" s="2">
         <v>21</v>
@@ -2302,7 +2302,7 @@
         <v>13</v>
       </c>
       <c r="E46" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F46" s="2">
         <v>27</v>
@@ -2328,16 +2328,16 @@
         <v>13</v>
       </c>
       <c r="E47" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F47" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2354,7 +2354,7 @@
         <v>13</v>
       </c>
       <c r="E48" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2">
         <v>14</v>
@@ -2406,7 +2406,7 @@
         <v>13</v>
       </c>
       <c r="E50" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F50" s="2">
         <v>16</v>
@@ -2432,16 +2432,16 @@
         <v>13</v>
       </c>
       <c r="E51" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G51" s="2">
         <v>0</v>
       </c>
       <c r="H51" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
@@ -1158,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2">
         <v>29</v>
@@ -1236,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2">
         <v>22</v>
@@ -1366,7 +1366,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F10" s="2">
         <v>46</v>
@@ -1392,7 +1392,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F11" s="2">
         <v>40</v>
@@ -1418,16 +1418,16 @@
         <v>13</v>
       </c>
       <c r="E12" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F12" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2">
         <v>17</v>
@@ -1652,7 +1652,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2">
         <v>25</v>
@@ -1678,7 +1678,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2">
         <v>15</v>
@@ -1707,13 +1707,13 @@
         <v>54</v>
       </c>
       <c r="F23" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1730,16 +1730,16 @@
         <v>13</v>
       </c>
       <c r="E24" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1808,7 +1808,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F27" s="2">
         <v>35</v>
@@ -2120,7 +2120,7 @@
         <v>13</v>
       </c>
       <c r="E39" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39" s="2">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>13</v>
       </c>
       <c r="E40" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2">
         <v>29</v>
@@ -2172,7 +2172,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F41" s="2">
         <v>41</v>
@@ -2198,16 +2198,16 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F42" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2250,7 +2250,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2">
         <v>38</v>
@@ -2302,7 +2302,7 @@
         <v>13</v>
       </c>
       <c r="E46" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F46" s="2">
         <v>27</v>
@@ -2328,7 +2328,7 @@
         <v>13</v>
       </c>
       <c r="E47" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F47" s="2">
         <v>43</v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
@@ -670,13 +670,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -719,16 +719,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -745,7 +745,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>29</x:v>
@@ -875,7 +875,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>52</x:v>
@@ -901,16 +901,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -953,16 +953,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H13" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
@@ -1005,7 +1005,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>17</x:v>
@@ -1031,7 +1031,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>26</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>13</x:v>
@@ -1109,7 +1109,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>1</x:v>
@@ -1161,7 +1161,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
         <x:v>28</x:v>
@@ -1187,16 +1187,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H22" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8">
@@ -1213,7 +1213,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
         <x:v>23</x:v>
@@ -1265,7 +1265,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
         <x:v>26</x:v>
@@ -1291,7 +1291,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>14</x:v>
@@ -1317,16 +1317,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -1343,16 +1343,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1369,16 +1369,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1395,16 +1395,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H30" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:8">
@@ -1421,7 +1421,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
         <x:v>15</x:v>
@@ -1447,16 +1447,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8">
@@ -1473,7 +1473,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>42</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>17</x:v>
@@ -1629,7 +1629,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>29</x:v>
@@ -1655,7 +1655,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>33</x:v>
@@ -1707,7 +1707,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>49</x:v>
@@ -1759,7 +1759,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
         <x:v>43</x:v>
@@ -1785,7 +1785,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
         <x:v>25</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>53</x:v>
@@ -1863,16 +1863,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1889,7 +1889,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>33</x:v>
@@ -1941,16 +1941,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
@@ -719,7 +719,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>7</x:v>
@@ -745,16 +745,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -771,7 +771,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>9</x:v>
@@ -875,16 +875,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -901,7 +901,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
         <x:v>49</x:v>
@@ -927,16 +927,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>141</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -979,7 +979,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>20</x:v>
@@ -1005,7 +1005,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>17</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>6</x:v>
@@ -1161,7 +1161,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
         <x:v>28</x:v>
@@ -1187,16 +1187,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H22" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8">
@@ -1213,7 +1213,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
         <x:v>23</x:v>
@@ -1239,7 +1239,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>32</x:v>
@@ -1317,16 +1317,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -1343,7 +1343,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>14</x:v>
@@ -1369,7 +1369,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
         <x:v>28</x:v>
@@ -1395,7 +1395,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
         <x:v>30</x:v>
@@ -1447,16 +1447,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8">
@@ -1499,7 +1499,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>34</x:v>
@@ -1551,7 +1551,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>11</x:v>
@@ -1603,7 +1603,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>19</x:v>
@@ -1629,7 +1629,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>29</x:v>
@@ -1655,7 +1655,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>33</x:v>
@@ -1681,7 +1681,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>44</x:v>
@@ -1707,7 +1707,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>49</x:v>
@@ -1811,16 +1811,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8">
@@ -1837,16 +1837,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>141</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1863,7 +1863,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>18</x:v>
@@ -1889,16 +1889,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -1915,7 +1915,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>20</x:v>
@@ -1941,7 +1941,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
         <x:v>22</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
@@ -719,16 +719,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -745,7 +745,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>30</x:v>
@@ -875,16 +875,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>151</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -901,16 +901,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -927,16 +927,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>145</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -953,7 +953,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
         <x:v>21</x:v>
@@ -979,7 +979,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>20</x:v>
@@ -1005,7 +1005,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>17</x:v>
@@ -1031,7 +1031,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>26</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>13</x:v>
@@ -1083,16 +1083,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1135,7 +1135,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
         <x:v>12</x:v>
@@ -1161,7 +1161,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
         <x:v>28</x:v>
@@ -1187,7 +1187,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
         <x:v>26</x:v>
@@ -1213,16 +1213,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8">
@@ -1239,7 +1239,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>32</x:v>
@@ -1291,7 +1291,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>14</x:v>
@@ -1317,16 +1317,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -1369,16 +1369,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1447,16 +1447,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8">
@@ -1473,7 +1473,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>42</x:v>
@@ -1502,13 +1502,13 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -1525,16 +1525,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H35" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:8">
@@ -1577,7 +1577,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>17</x:v>
@@ -1629,7 +1629,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>29</x:v>
@@ -1655,16 +1655,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1681,7 +1681,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>44</x:v>
@@ -1707,16 +1707,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1759,16 +1759,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1811,16 +1811,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8">
@@ -1837,7 +1837,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>54</x:v>
@@ -1863,16 +1863,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1915,7 +1915,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>20</x:v>
@@ -1941,7 +1941,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
         <x:v>22</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
@@ -667,7 +667,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>34</x:v>
@@ -693,7 +693,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>17</x:v>
@@ -745,7 +745,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
         <x:v>30</x:v>
@@ -771,7 +771,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>9</x:v>
@@ -823,7 +823,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>1</x:v>
@@ -875,16 +875,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>155</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -901,7 +901,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
         <x:v>53</x:v>
@@ -927,16 +927,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>151</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -953,16 +953,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H13" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
@@ -979,7 +979,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>20</x:v>
@@ -1005,16 +1005,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1031,7 +1031,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>26</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>7</x:v>
@@ -1135,7 +1135,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
         <x:v>12</x:v>
@@ -1161,16 +1161,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:8">
@@ -1187,7 +1187,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
         <x:v>26</x:v>
@@ -1213,7 +1213,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
         <x:v>25</x:v>
@@ -1239,7 +1239,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>32</x:v>
@@ -1265,7 +1265,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
         <x:v>26</x:v>
@@ -1291,7 +1291,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>14</x:v>
@@ -1317,16 +1317,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -1369,16 +1369,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1395,16 +1395,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H30" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:8">
@@ -1447,16 +1447,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8">
@@ -1473,7 +1473,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>42</x:v>
@@ -1499,16 +1499,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -1525,7 +1525,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
         <x:v>24</x:v>
@@ -1551,16 +1551,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1577,7 +1577,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>17</x:v>
@@ -1629,7 +1629,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>29</x:v>
@@ -1655,7 +1655,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>34</x:v>
@@ -1681,7 +1681,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>127</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>44</x:v>
@@ -1707,16 +1707,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1733,7 +1733,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>12</x:v>
@@ -1759,16 +1759,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1785,7 +1785,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
         <x:v>25</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>35</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>54</x:v>
@@ -1863,16 +1863,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1915,16 +1915,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -1941,16 +1941,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
@@ -693,16 +693,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -719,7 +719,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>8</x:v>
@@ -771,16 +771,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -797,7 +797,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>3</x:v>
@@ -875,16 +875,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>159</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -901,7 +901,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
         <x:v>53</x:v>
@@ -927,16 +927,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>165</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -953,16 +953,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H13" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
@@ -979,16 +979,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -1005,16 +1005,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -1031,16 +1031,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -1057,7 +1057,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>13</x:v>
@@ -1083,16 +1083,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1109,7 +1109,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
         <x:v>1</x:v>
@@ -1135,16 +1135,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8">
@@ -1161,16 +1161,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:8">
@@ -1187,16 +1187,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H22" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8">
@@ -1213,16 +1213,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8">
@@ -1239,16 +1239,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1265,16 +1265,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -1291,16 +1291,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -1317,16 +1317,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -1343,16 +1343,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1369,16 +1369,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -1395,16 +1395,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H30" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:8">
@@ -1421,7 +1421,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
         <x:v>15</x:v>
@@ -1447,7 +1447,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
         <x:v>36</x:v>
@@ -1473,16 +1473,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
@@ -1499,16 +1499,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -1525,16 +1525,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H35" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:8">
@@ -1551,16 +1551,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -1577,16 +1577,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -1603,16 +1603,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -1629,7 +1629,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>29</x:v>
@@ -1655,16 +1655,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8">
@@ -1681,16 +1681,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>134</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1707,16 +1707,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
@@ -1733,16 +1733,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
@@ -1759,16 +1759,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1785,16 +1785,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8">
@@ -1811,16 +1811,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8">
@@ -1837,16 +1837,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>152</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1863,16 +1863,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8">
@@ -1889,16 +1889,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -1915,16 +1915,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -1941,16 +1941,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
@@ -667,7 +667,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>34</x:v>
@@ -719,7 +719,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>8</x:v>
@@ -875,16 +875,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>170</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -901,16 +901,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -927,16 +927,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>170</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -953,16 +953,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H13" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
@@ -979,16 +979,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -1005,7 +1005,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>19</x:v>
@@ -1057,16 +1057,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1083,7 +1083,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>9</x:v>
@@ -1135,7 +1135,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
         <x:v>14</x:v>
@@ -1161,7 +1161,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
         <x:v>31</x:v>
@@ -1187,7 +1187,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
         <x:v>29</x:v>
@@ -1213,16 +1213,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8">
@@ -1239,16 +1239,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -1291,7 +1291,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>17</x:v>
@@ -1317,7 +1317,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>54</x:v>
@@ -1343,16 +1343,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -1369,7 +1369,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
         <x:v>35</x:v>
@@ -1395,16 +1395,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H30" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:8">
@@ -1421,7 +1421,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
         <x:v>15</x:v>
@@ -1447,16 +1447,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8">
@@ -1473,7 +1473,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>46</x:v>
@@ -1499,7 +1499,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>39</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
         <x:v>27</x:v>
@@ -1551,7 +1551,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>14</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>19</x:v>
@@ -1603,7 +1603,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>20</x:v>
@@ -1629,7 +1629,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>29</x:v>
@@ -1681,16 +1681,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
@@ -1707,7 +1707,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>54</x:v>
@@ -1759,16 +1759,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8">
@@ -1785,7 +1785,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
         <x:v>26</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>40</x:v>
@@ -1837,16 +1837,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>162</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8">
@@ -1863,7 +1863,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>21</x:v>
@@ -1889,16 +1889,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8">
@@ -1915,16 +1915,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8">
@@ -1941,16 +1941,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:8">
